--- a/src/Pequiven/SEIPBundle/Resources/Skeleton/Sip/SegVoto.xlsx
+++ b/src/Pequiven/SEIPBundle/Resources/Skeleton/Sip/SegVoto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilbert\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="Cuadro" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cuadro!$A$4:$L$4</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Cuadro!$A$4:$I$5</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">Cuadro!$A$4:$I$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Cuadro!$A$4:$I$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">Cuadro!$A$4:$I$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">Cuadro!$A$4:$I$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cuadro!$A$4:$O$4</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Cuadro!$A$4:$M$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Cuadro!$A$4:$M$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Cuadro!$A$4:$M$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">Cuadro!$A$4:$M$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">Cuadro!$A$4:$M$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Cuadro!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Sistema de Información Política</t>
   </si>
@@ -51,24 +51,12 @@
     <t>GERENCIA 2DA LÍNEA</t>
   </si>
   <si>
-    <t>CÓDIGO CENTRO</t>
-  </si>
-  <si>
     <t>HORA:</t>
   </si>
   <si>
     <t>VOTO</t>
   </si>
   <si>
-    <t>Datos del Elector</t>
-  </si>
-  <si>
-    <t>Datos del Coordinador de Círculo de Estudio y Trabajo</t>
-  </si>
-  <si>
-    <t>Datos de Pequiven (Complejo y Gerencias)</t>
-  </si>
-  <si>
     <t>CÉDULA</t>
   </si>
   <si>
@@ -79,6 +67,30 @@
   </si>
   <si>
     <t>Coord.</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>MUNICIPIO</t>
+  </si>
+  <si>
+    <t>PARROQUIA</t>
+  </si>
+  <si>
+    <t>DATOS DEL CENTRO ELECTORAL</t>
+  </si>
+  <si>
+    <t>CÓDIGO</t>
+  </si>
+  <si>
+    <t>DATOS DEL ELECTOR</t>
+  </si>
+  <si>
+    <t>DATOS DEL COORDINADOR DE CÍRCULO DE ESTUDIO Y TRABAJO</t>
+  </si>
+  <si>
+    <t>DATOS DE PEQUIVEN (COMPLEJO Y GERENCIA)</t>
   </si>
 </sst>
 </file>
@@ -94,16 +106,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Franklin Gothic Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Franklin Gothic Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
     </font>
@@ -123,12 +125,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Franklin Gothic Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="12"/>
       <color rgb="FFC00000"/>
@@ -138,7 +134,27 @@
     <font>
       <b/>
       <i/>
-      <sz val="18"/>
+      <sz val="10"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
     </font>
@@ -232,55 +248,37 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -295,10 +293,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -337,7 +353,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>843643</xdr:colOff>
+      <xdr:colOff>462643</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1483179</xdr:rowOff>
     </xdr:to>
@@ -367,14 +383,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>217714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>653143</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>707571</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1224643</xdr:rowOff>
     </xdr:to>
@@ -389,7 +405,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19308535" y="217714"/>
+          <a:off x="24764999" y="217714"/>
           <a:ext cx="952501" cy="1006929"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -671,138 +687,160 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16" style="6" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="8"/>
-    <col min="12" max="12" width="41" style="8" customWidth="1"/>
-    <col min="13" max="1016" width="11.5703125" style="8"/>
-    <col min="1017" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="10.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="20" style="8" customWidth="1"/>
+    <col min="8" max="10" width="26.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="22" customWidth="1"/>
+    <col min="13" max="13" width="35.7109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="2"/>
+    <col min="15" max="15" width="41" style="2" customWidth="1"/>
+    <col min="16" max="1019" width="11.5703125" style="2"/>
+    <col min="1020" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J1" s="24" t="s">
+    <row r="1" spans="1:15" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="11"/>
+      <c r="M1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="24"/>
+      <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="9" t="s">
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="23"/>
+      <c r="O4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L4"/>
+  <autoFilter ref="A4:O4"/>
   <mergeCells count="5">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A2:M2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H3:K3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="5" scale="49" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="39" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Arial,Negrita Cursiva"&amp;12&amp;KE60000Gerencia Corporativa de Planificación y Nuevos Desarrollos&amp;R&amp;P</oddFooter>
   </headerFooter>

--- a/src/Pequiven/SEIPBundle/Resources/Skeleton/Sip/SegVoto.xlsx
+++ b/src/Pequiven/SEIPBundle/Resources/Skeleton/Sip/SegVoto.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="519"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="419"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadro" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cuadro!$A$4:$O$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cuadro!$A$4:$P$4</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Cuadro!$A$4:$M$5</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Cuadro!$A$4:$M$5</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Cuadro!$A$4:$M$5</definedName>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Sistema de Información Política</t>
   </si>
@@ -96,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -246,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -284,15 +279,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -308,9 +294,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -319,6 +302,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,15 +382,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>530678</xdr:colOff>
+      <xdr:colOff>68035</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
+      <xdr:rowOff>204107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>707571</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1020536</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1224643</xdr:rowOff>
+      <xdr:rowOff>1211036</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -405,7 +403,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24764999" y="217714"/>
+          <a:off x="24302356" y="204107"/>
           <a:ext cx="952501" cy="1006929"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -464,7 +462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -499,7 +497,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -676,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -687,10 +685,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -704,22 +702,24 @@
     <col min="7" max="7" width="20" style="8" customWidth="1"/>
     <col min="8" max="10" width="26.7109375" style="8" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="18" customWidth="1"/>
     <col min="13" max="13" width="35.7109375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="2"/>
-    <col min="15" max="15" width="41" style="2" customWidth="1"/>
-    <col min="16" max="1019" width="11.5703125" style="2"/>
-    <col min="1020" max="16384" width="9.140625" style="2"/>
+    <col min="14" max="14" width="20" style="8" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="2"/>
+    <col min="16" max="16" width="41" style="2" customWidth="1"/>
+    <col min="17" max="1020" width="11.5703125" style="2"/>
+    <col min="1021" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K1" s="11"/>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>11</v>
       </c>
@@ -735,37 +735,39 @@
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="13" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="13" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="13" t="s">
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -806,37 +808,41 @@
         <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="20"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:O4"/>
+  <autoFilter ref="A4:P4"/>
   <mergeCells count="5">
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
